--- a/individual_results/avey/366.xlsx
+++ b/individual_results/avey/366.xlsx
@@ -637,7 +637,7 @@
         <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -749,7 +749,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -792,7 +792,7 @@
         <v>0.17376534287144</v>
       </c>
       <c r="F6" t="n">
-        <v>0.17376534287144</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1075,7 +1075,9 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1106,7 +1108,7 @@
         <v>2.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1.5</v>
@@ -1115,14 +1117,14 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1134,7 +1136,7 @@
         <v>0.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>1.5</v>
@@ -1146,25 +1148,25 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
         <v>0.5</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/individual_results/avey/366.xlsx
+++ b/individual_results/avey/366.xlsx
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.1666666666666667</v>
@@ -698,14 +698,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
         <v>0.2857142857142857</v>
@@ -739,14 +739,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
         <v>0.5</v>
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.17376534287144</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17376534287144</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="E6" t="n">
-        <v>0.17376534287144</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="F6" t="n">
-        <v>0.52129602861432</v>
+        <v>0.6309297535714575</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
